--- a/output/테이블 정의서, 기능 정의서.xlsx
+++ b/output/테이블 정의서, 기능 정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\9.GitHub\rm-library-management-Workspace\library-management\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93696136-9830-4693-ADB3-3139FC492D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14639DD1-C768-4F55-BFB3-1061C0819B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
   <si>
     <t>테이블 정의서</t>
   </si>
@@ -176,103 +176,135 @@
     <t>ON UPDATE CURRENT_TIMESTAMP</t>
   </si>
   <si>
+    <t>도서대출</t>
+  </si>
+  <si>
+    <t>book_loan</t>
+  </si>
+  <si>
+    <t>도서대출 ID</t>
+  </si>
+  <si>
+    <t>book_id</t>
+  </si>
+  <si>
+    <t>사용자ID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>대출일</t>
+  </si>
+  <si>
+    <t>loan_date</t>
+  </si>
+  <si>
+    <t>반납일</t>
+  </si>
+  <si>
+    <t>return_date</t>
+  </si>
+  <si>
+    <t>기능 정의서</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>서비스</t>
+  </si>
+  <si>
+    <t>기능</t>
+  </si>
+  <si>
+    <t>기능설명</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>가입</t>
+  </si>
+  <si>
+    <t>ID, PW, 이름을 기입 받아 회원가입</t>
+  </si>
+  <si>
+    <t>도서관리</t>
+  </si>
+  <si>
+    <t>도서</t>
+  </si>
+  <si>
+    <t>도서 등록</t>
+  </si>
+  <si>
+    <t>도서 수정</t>
+  </si>
+  <si>
+    <t>제목, 저자, 출판사를 기입 받으면 해당 책 수정</t>
+  </si>
+  <si>
+    <t>도서 대출</t>
+  </si>
+  <si>
+    <t>아이디를 입력 후 해당 도서의 대출처리</t>
+  </si>
+  <si>
+    <t>도서 반납</t>
+  </si>
+  <si>
+    <t>회원이 가지고 온 책과 대출한 책이 같은지 확인 후 반납</t>
+  </si>
+  <si>
+    <t>도서 대출이력</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서재고</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_stock</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_status</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반환, 0=대출</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>반환상태</t>
-  </si>
-  <si>
-    <t>return_status</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>도서대출</t>
-  </si>
-  <si>
-    <t>book_loan</t>
-  </si>
-  <si>
-    <t>도서대출 ID</t>
-  </si>
-  <si>
-    <t>book_id</t>
-  </si>
-  <si>
-    <t>사용자ID</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>VHARCHAR(35)</t>
-  </si>
-  <si>
-    <t>대출일</t>
-  </si>
-  <si>
-    <t>loan_date</t>
-  </si>
-  <si>
-    <t>반납일</t>
-  </si>
-  <si>
-    <t>return_date</t>
-  </si>
-  <si>
-    <t>기능 정의서</t>
-  </si>
-  <si>
-    <t>구분</t>
-  </si>
-  <si>
-    <t>서비스</t>
-  </si>
-  <si>
-    <t>기능</t>
-  </si>
-  <si>
-    <t>기능설명</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-  </si>
-  <si>
-    <t>가입</t>
-  </si>
-  <si>
-    <t>ID, PW, 이름을 기입 받아 회원가입</t>
-  </si>
-  <si>
-    <t>도서관리</t>
-  </si>
-  <si>
-    <t>도서</t>
-  </si>
-  <si>
-    <t>도서 등록</t>
-  </si>
-  <si>
-    <t>도서 수정</t>
-  </si>
-  <si>
-    <t>제목, 저자, 출판사를 기입 받으면 해당 책 수정</t>
-  </si>
-  <si>
-    <t>도서 대출</t>
-  </si>
-  <si>
-    <t>아이디를 입력 후 해당 도서의 대출처리</t>
-  </si>
-  <si>
-    <t>도서 반납</t>
-  </si>
-  <si>
-    <t>회원이 가지고 온 책과 대출한 책이 같은지 확인 후 반납</t>
-  </si>
-  <si>
-    <t>도서 대출이력</t>
-  </si>
-  <si>
-    <t>입력한 제목과 같은 도서의 대출이력 표시</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>book_stock_id</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VHARCHAR(45)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -424,17 +456,37 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">이미 등록된 도서의 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+      <t>이미 등록된 도서와 같은 값을 기입 받으면 재고 추가</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
         <charset val="129"/>
       </rPr>
-      <t>같은</t>
+      <t xml:space="preserve">북 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">재고 </t>
     </r>
     <r>
       <rPr>
@@ -442,19 +494,18 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ID, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>제목의</t>
+      <t xml:space="preserve">대출 </t>
     </r>
     <r>
       <rPr>
@@ -462,19 +513,18 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ID, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>책도</t>
+      <t xml:space="preserve">유저 </t>
     </r>
     <r>
       <rPr>
@@ -482,19 +532,18 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ID, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>등록</t>
+      <t>제목, 저자, 출판사</t>
     </r>
     <r>
       <rPr>
@@ -502,6 +551,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -510,11 +560,33 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>가능</t>
+      <t>중에 
+기입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받은 값들로 해당 도서의 대출이력 리스트 출력</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -523,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -621,6 +693,26 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -642,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1255,11 +1347,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1302,88 +1474,117 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,9 +1804,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:L34"/>
+  <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1618,74 +1821,74 @@
     <col min="7" max="7" width="4.42578125" customWidth="1"/>
     <col min="8" max="8" width="5.140625" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="2.28515625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="43"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="2:12" ht="15">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="45"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="8" spans="2:12" ht="15">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1718,11 +1921,11 @@
       <c r="H9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1749,9 +1952,9 @@
       <c r="H10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" ht="12.75">
@@ -1776,9 +1979,9 @@
       <c r="H11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" ht="12.75">
@@ -1803,16 +2006,16 @@
       <c r="H12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="17"/>
     </row>
     <row r="16" spans="2:12" ht="15">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
@@ -1845,11 +2048,11 @@
       <c r="H17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
       <c r="L17" s="11" t="s">
         <v>21</v>
       </c>
@@ -1876,9 +2079,9 @@
       <c r="H18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" ht="12.75">
@@ -1903,9 +2106,9 @@
       <c r="H19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" ht="12.75">
@@ -1930,9 +2133,9 @@
       <c r="H20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="2:12" ht="12.75">
@@ -1957,9 +2160,9 @@
       <c r="H21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="2:12" ht="12.75">
@@ -1984,126 +2187,125 @@
       <c r="H22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12" ht="12.75">
-      <c r="B23" s="12">
+    <row r="23" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B23" s="80">
         <v>6</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="2:12" ht="12.75">
-      <c r="B24" s="15">
-        <v>7</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="27" spans="2:12" thickBot="1">
+      <c r="B27" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15">
+      <c r="B28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="71"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="12.75">
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="D29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="50">
-        <v>1</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="28" spans="2:12" ht="15">
-      <c r="B28" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="15">
-      <c r="B29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="2:12" ht="12.75">
       <c r="B30" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>35</v>
@@ -2112,142 +2314,233 @@
         <v>25</v>
       </c>
       <c r="G30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="I30" s="32"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="2:12" ht="12.75">
-      <c r="B31" s="12">
+      <c r="H31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="40">
+        <v>1</v>
+      </c>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="35" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B35" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="71"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B38" s="12">
         <v>2</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D38" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B39" s="12">
+        <v>3</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B40" s="12">
+        <v>4</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="D40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="2:12" ht="12.75">
-      <c r="B32" s="12">
-        <v>3</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="H40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B41" s="15">
+        <v>5</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="D41" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="13" t="s">
+      <c r="E41" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="2:12" ht="12.75">
-      <c r="B33" s="12">
-        <v>4</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="13" t="s">
+      <c r="H41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="2:12" ht="12.75">
-      <c r="B34" s="15">
-        <v>5</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="28"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="17"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
+  <mergeCells count="29">
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F2:L2"/>
@@ -2259,6 +2552,24 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2273,21 +2584,21 @@
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E21" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="23.25">
-      <c r="B2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="2:5" ht="23.25">
       <c r="D3" s="21"/>
@@ -2298,87 +2609,87 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" thickBot="1">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="22.5" customHeight="1" thickTop="1">
+      <c r="B6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="D6" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="E6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="68" t="s">
+    </row>
+    <row r="7" spans="2:5" ht="30.75" customHeight="1">
+      <c r="B7" s="61" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="22.5" customHeight="1" thickTop="1">
-      <c r="B6" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="C7" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D7" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E7" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="23.25" customHeight="1">
+      <c r="B8" s="62"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="30.75" customHeight="1">
-      <c r="B7" s="55" t="s">
+      <c r="E8" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="53" t="s">
+    </row>
+    <row r="9" spans="2:5" ht="12.75">
+      <c r="B9" s="62"/>
+      <c r="C9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="23.25" customHeight="1">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="52" t="s">
+    </row>
+    <row r="10" spans="2:5" ht="12.75">
+      <c r="B10" s="62"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E10" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="12.75">
-      <c r="B9" s="57"/>
-      <c r="C9" s="53" t="s">
+    <row r="11" spans="2:5" ht="26.25" thickBot="1">
+      <c r="B11" s="63"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="12.75">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>83</v>
+      <c r="E11" s="87" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
